--- a/Program/Other/Sharepoint上傳用/測試FT/L8/L8402/FT_L8402.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L8/L8402/FT_L8402.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L8\L8402\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1808097-4E1B-44D4-8785-02F1A1935E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D944E7F-A2CF-43B5-94D6-FD83D3A9899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>目錄名稱</t>
   </si>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_8遵循法令作業_V1.52.docx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[輸入欄位]會計日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -151,7 +147,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>自動顯示會計日期不需輸入(月報環境)</t>
+    <t>[輸入欄位]報送日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示日曆日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[輸入欄位]檔案序號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.限輸入數字，檢核條件:不可為0/V(2,0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動顯示會計日期不需輸入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[輸入欄位]審查聯絡人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[輸入欄位]聯絡電話</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示不可修改2.SystemParas.JcicEmpTel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示不可修改2.SystemParas.JcicEmpName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manual</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_8遵循法令作業_V1.55.docx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -358,6 +394,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,10 +682,10 @@
   <sheetPr codeName="工作表2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -723,22 +762,22 @@
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="7" t="s">
@@ -757,7 +796,7 @@
         <v>22</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -765,56 +804,244 @@
         <v>19</v>
       </c>
       <c r="Q2" s="16">
-        <v>44585</v>
+        <v>44641</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="F3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="C4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="C5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="I7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11" t="s">
+      <c r="M7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="17">
-        <v>44585</v>
+      <c r="Q7" s="17">
+        <v>44641</v>
       </c>
     </row>
   </sheetData>
